--- a/LubanConfig/Datas/GoldPropConfig.xlsx
+++ b/LubanConfig/Datas/GoldPropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="25755" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -92,22 +92,55 @@
     <t>资源名</t>
   </si>
   <si>
-    <t>金币</t>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>转盘白银金币1</t>
   </si>
   <si>
     <t>Commmon_12</t>
   </si>
   <si>
-    <t>喇叭</t>
-  </si>
-  <si>
-    <t>VIP</t>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>转盘白银金币2</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>转盘白银金币3</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>转盘白银金币4和黄金1</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>转盘白银金币5和黄金2</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>转盘黄金金币3</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>转盘黄金金币4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -137,6 +170,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -150,6 +211,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,14 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +279,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,21 +294,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,28 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,13 +335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,12 +395,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,18 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,36 +449,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,24 +473,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,12 +492,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +528,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +576,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,209 +634,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1069,12 +1108,13 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,103 +1168,123 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4">
-        <v>10001</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5">
-        <v>10002</v>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6">
-        <v>10003</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="3"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="3"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="3"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="3"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="3"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="3"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="3"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="3"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="3"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="3"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="3"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="3"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="3"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="3"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="3"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="3"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="3"/>
+      <c r="C30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanConfig/Datas/GoldPropConfig.xlsx
+++ b/LubanConfig/Datas/GoldPropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25755" windowHeight="10590"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
     <t>100001</t>
   </si>
   <si>
-    <t>转盘白银金币1</t>
-  </si>
-  <si>
-    <t>Commmon_12</t>
+    <t>通用奖励金币</t>
+  </si>
+  <si>
+    <t>Common_21</t>
   </si>
   <si>
     <t>100002</t>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -170,34 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,14 +183,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,6 +227,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,7 +287,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,18 +335,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,19 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,115 +461,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,21 +528,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +561,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,148 +634,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,8 +783,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -797,52 +797,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/LubanConfig/Datas/GoldPropConfig.xlsx
+++ b/LubanConfig/Datas/GoldPropConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -98,43 +98,7 @@
     <t>通用奖励金币</t>
   </si>
   <si>
-    <t>Common_21</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>转盘白银金币2</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>转盘白银金币3</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>转盘白银金币4和黄金1</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>转盘白银金币5和黄金2</t>
-  </si>
-  <si>
-    <t>100006</t>
-  </si>
-  <si>
-    <t>转盘黄金金币3</t>
-  </si>
-  <si>
-    <t>100007</t>
-  </si>
-  <si>
-    <t>转盘黄金金币4</t>
+    <t>Common_Award_jinbi</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1072,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1179,52 +1143,28 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="5"/>
